--- a/JLP_2025-01.xlsx
+++ b/JLP_2025-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,46 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26/01/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ALUGUEL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>600</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26/01/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/JLP_2025-01.xlsx
+++ b/JLP_2025-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,46 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26/01/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26/01/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/JLP_2025-01.xlsx
+++ b/JLP_2025-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SERVIÇOS</t>
+          <t>VIAGENS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -481,11 +481,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25/01/2025</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>26/01/2025</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -495,41 +501,53 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GPS</t>
+          <t>EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25/01/2025</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>26/01/2025</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Despesa</t>
+          <t>Receita</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SERVIÇOS</t>
+          <t>APLICAÇÕES FINANCEIRAS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>26/01/2025</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Luiz Fernando</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -543,37 +561,49 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>26/01/2025</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Joao</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Despesa</t>
+          <t>Receita</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SERVIÇOS</t>
+          <t>APLICAÇÕES FINANCEIRAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>26/01/2025</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Joao</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -583,19 +613,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SERVIÇOS</t>
+          <t>RETIRADA DE CAPITAL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>26/01/2025</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -605,129 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALUGUEL</t>
+          <t>DEVOLUCAO DE CAPITAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>26/01/2025</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Receita</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ALUGUEL</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>500</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>26/01/2025</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Luiz Fernando</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Despesa</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SERVIÇOS</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>500</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>26/01/2025</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Não existe</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Receita</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ALUGUEL</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>500</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>26/01/2025</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Luiz Fernando</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Despesa</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SERVIÇOS</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>500</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>26/01/2025</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
     </row>

--- a/JLP_2025-01.xlsx
+++ b/JLP_2025-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +661,122 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>JLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>JLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/JLP_2025-01.xlsx
+++ b/JLP_2025-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,6 +777,34 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SERVIÇOS</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/JLP_2025-01.xlsx
+++ b/JLP_2025-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,6 +805,90 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ALUGUEL</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>dazin</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ALUGUEL</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>dazin</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ALUGUEL</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>500</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>dazin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/JLP_2025-01.xlsx
+++ b/JLP_2025-01.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
